--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Gnai2-Agtr2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Gnai2-Agtr2.xlsx
@@ -531,52 +531,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>145.342865936896</v>
+        <v>162.399297</v>
       </c>
       <c r="H2">
-        <v>145.342865936896</v>
+        <v>487.197891</v>
       </c>
       <c r="I2">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="J2">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>64.0937663472954</v>
+        <v>64.154275</v>
       </c>
       <c r="N2">
-        <v>64.0937663472954</v>
+        <v>192.462825</v>
       </c>
       <c r="O2">
-        <v>0.971972946231151</v>
+        <v>0.9711753522845754</v>
       </c>
       <c r="P2">
-        <v>0.971972946231151</v>
+        <v>0.9711753522845754</v>
       </c>
       <c r="Q2">
-        <v>9315.571689605693</v>
+        <v>10418.60915954467</v>
       </c>
       <c r="R2">
-        <v>9315.571689605693</v>
+        <v>93767.48243590207</v>
       </c>
       <c r="S2">
-        <v>0.3665034779693066</v>
+        <v>0.3797656596441827</v>
       </c>
       <c r="T2">
-        <v>0.3665034779693066</v>
+        <v>0.3797656596441827</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>145.342865936896</v>
+        <v>162.399297</v>
       </c>
       <c r="H3">
-        <v>145.342865936896</v>
+        <v>487.197891</v>
       </c>
       <c r="I3">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="J3">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.84815785524599</v>
+        <v>1.904109666666667</v>
       </c>
       <c r="N3">
-        <v>1.84815785524599</v>
+        <v>5.712329</v>
       </c>
       <c r="O3">
-        <v>0.02802705376884896</v>
+        <v>0.02882464771542451</v>
       </c>
       <c r="P3">
-        <v>0.02802705376884896</v>
+        <v>0.02882464771542451</v>
       </c>
       <c r="Q3">
-        <v>268.6165593852392</v>
+        <v>309.226071277571</v>
       </c>
       <c r="R3">
-        <v>268.6165593852392</v>
+        <v>2783.034641498139</v>
       </c>
       <c r="S3">
-        <v>0.01056820842940731</v>
+        <v>0.01127150861881818</v>
       </c>
       <c r="T3">
-        <v>0.01056820842940731</v>
+        <v>0.01127150861881818</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>65.38518200466839</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H4">
-        <v>65.38518200466839</v>
+        <v>196.252094</v>
       </c>
       <c r="I4">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="J4">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>64.0937663472954</v>
+        <v>64.154275</v>
       </c>
       <c r="N4">
-        <v>64.0937663472954</v>
+        <v>192.462825</v>
       </c>
       <c r="O4">
-        <v>0.971972946231151</v>
+        <v>0.9711753522845754</v>
       </c>
       <c r="P4">
-        <v>0.971972946231151</v>
+        <v>0.9711753522845754</v>
       </c>
       <c r="Q4">
-        <v>4190.7825779826</v>
+        <v>4196.803602600617</v>
       </c>
       <c r="R4">
-        <v>4190.7825779826</v>
+        <v>37771.23242340555</v>
       </c>
       <c r="S4">
-        <v>0.1648783822851792</v>
+        <v>0.1529764543550994</v>
       </c>
       <c r="T4">
-        <v>0.1648783822851792</v>
+        <v>0.1529764543550994</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>65.38518200466839</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H5">
-        <v>65.38518200466839</v>
+        <v>196.252094</v>
       </c>
       <c r="I5">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="J5">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.84815785524599</v>
+        <v>1.904109666666667</v>
       </c>
       <c r="N5">
-        <v>1.84815785524599</v>
+        <v>5.712329</v>
       </c>
       <c r="O5">
-        <v>0.02802705376884896</v>
+        <v>0.02882464771542451</v>
       </c>
       <c r="P5">
-        <v>0.02802705376884896</v>
+        <v>0.02882464771542451</v>
       </c>
       <c r="Q5">
-        <v>120.8421377386166</v>
+        <v>124.5618364296585</v>
       </c>
       <c r="R5">
-        <v>120.8421377386166</v>
+        <v>1121.056527866926</v>
       </c>
       <c r="S5">
-        <v>0.004754304431564486</v>
+        <v>0.004540366881395461</v>
       </c>
       <c r="T5">
-        <v>0.004754304431564486</v>
+        <v>0.004540366881395461</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>113.557180850918</v>
+        <v>126.3069433333333</v>
       </c>
       <c r="H6">
-        <v>113.557180850918</v>
+        <v>378.92083</v>
       </c>
       <c r="I6">
-        <v>0.2946081832783616</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="J6">
-        <v>0.2946081832783616</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>64.0937663472954</v>
+        <v>64.154275</v>
       </c>
       <c r="N6">
-        <v>64.0937663472954</v>
+        <v>192.462825</v>
       </c>
       <c r="O6">
-        <v>0.971972946231151</v>
+        <v>0.9711753522845754</v>
       </c>
       <c r="P6">
-        <v>0.971972946231151</v>
+        <v>0.9711753522845754</v>
       </c>
       <c r="Q6">
-        <v>7278.307416516306</v>
+        <v>8103.130377016083</v>
       </c>
       <c r="R6">
-        <v>7278.307416516306</v>
+        <v>72928.17339314475</v>
       </c>
       <c r="S6">
-        <v>0.286351183884876</v>
+        <v>0.295364823239498</v>
       </c>
       <c r="T6">
-        <v>0.286351183884876</v>
+        <v>0.2953648232394981</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>113.557180850918</v>
+        <v>126.3069433333333</v>
       </c>
       <c r="H7">
-        <v>113.557180850918</v>
+        <v>378.92083</v>
       </c>
       <c r="I7">
-        <v>0.2946081832783616</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="J7">
-        <v>0.2946081832783616</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.84815785524599</v>
+        <v>1.904109666666667</v>
       </c>
       <c r="N7">
-        <v>1.84815785524599</v>
+        <v>5.712329</v>
       </c>
       <c r="O7">
-        <v>0.02802705376884896</v>
+        <v>0.02882464771542451</v>
       </c>
       <c r="P7">
-        <v>0.02802705376884896</v>
+        <v>0.02882464771542451</v>
       </c>
       <c r="Q7">
-        <v>209.8715958092136</v>
+        <v>240.5022717681189</v>
       </c>
       <c r="R7">
-        <v>209.8715958092136</v>
+        <v>2164.52044591307</v>
       </c>
       <c r="S7">
-        <v>0.008256999393485549</v>
+        <v>0.008766477606108394</v>
       </c>
       <c r="T7">
-        <v>0.008256999393485549</v>
+        <v>0.008766477606108396</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>61.1663210839279</v>
+        <v>61.180387</v>
       </c>
       <c r="H8">
-        <v>61.1663210839279</v>
+        <v>183.541161</v>
       </c>
       <c r="I8">
-        <v>0.158687443606181</v>
+        <v>0.1473147096548978</v>
       </c>
       <c r="J8">
-        <v>0.158687443606181</v>
+        <v>0.1473147096548978</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>64.0937663472954</v>
+        <v>64.154275</v>
       </c>
       <c r="N8">
-        <v>64.0937663472954</v>
+        <v>192.462825</v>
       </c>
       <c r="O8">
-        <v>0.971972946231151</v>
+        <v>0.9711753522845754</v>
       </c>
       <c r="P8">
-        <v>0.971972946231151</v>
+        <v>0.9711753522845754</v>
       </c>
       <c r="Q8">
-        <v>3920.379891876923</v>
+        <v>3924.983372204425</v>
       </c>
       <c r="R8">
-        <v>3920.379891876923</v>
+        <v>35324.85034983983</v>
       </c>
       <c r="S8">
-        <v>0.1542399020917893</v>
+        <v>0.1430684150457953</v>
       </c>
       <c r="T8">
-        <v>0.1542399020917893</v>
+        <v>0.1430684150457953</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>61.1663210839279</v>
+        <v>61.180387</v>
       </c>
       <c r="H9">
-        <v>61.1663210839279</v>
+        <v>183.541161</v>
       </c>
       <c r="I9">
-        <v>0.158687443606181</v>
+        <v>0.1473147096548978</v>
       </c>
       <c r="J9">
-        <v>0.158687443606181</v>
+        <v>0.1473147096548978</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.84815785524599</v>
+        <v>1.904109666666667</v>
       </c>
       <c r="N9">
-        <v>1.84815785524599</v>
+        <v>5.712329</v>
       </c>
       <c r="O9">
-        <v>0.02802705376884896</v>
+        <v>0.02882464771542451</v>
       </c>
       <c r="P9">
-        <v>0.02802705376884896</v>
+        <v>0.02882464771542451</v>
       </c>
       <c r="Q9">
-        <v>113.0450167877598</v>
+        <v>116.4941662971077</v>
       </c>
       <c r="R9">
-        <v>113.0450167877598</v>
+        <v>1048.447496673969</v>
       </c>
       <c r="S9">
-        <v>0.004447541514391621</v>
+        <v>0.004246294609102474</v>
       </c>
       <c r="T9">
-        <v>0.004447541514391621</v>
+        <v>0.004246294609102474</v>
       </c>
     </row>
   </sheetData>
